--- a/classfiers/chain/svm/smote/chain-svm-linear-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9650655021834061</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9650655021834061</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9650655021834061</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9907917220429087</v>
+        <v>0.9977225672877847</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7178683385579937</v>
+        <v>0.9467213114754098</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8357664233576642</v>
+        <v>0.9726315789473684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.761420163280805</v>
+        <v>0.9769809900244681</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8778625954198473</v>
+        <v>0.9126984126984127</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9349593495934959</v>
+        <v>0.9543568464730291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9741029048794381</v>
+        <v>0.9748015122873347</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8980392156862745</v>
+        <v>0.9504132231404959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956521739130435</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9443298969072165</v>
+        <v>0.9745762711864406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9880007594456047</v>
+        <v>0.9747826086956523</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9956709956709957</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9956331877729258</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9978308026030369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9928491066150531</v>
+        <v>0.9956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8891697277721018</v>
+        <v>0.9602349877312619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9912701727738751</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9342851039735738</v>
+        <v>0.9794452603625825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9414329312527618</v>
+        <v>0.9839879704416568</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/smote/chain-svm-linear-results.xlsx
+++ b/classfiers/chain/svm/smote/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9977225672877847</v>
+        <v>0.859725</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9467213114754098</v>
+        <v>0.9798994974874372</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9726315789473684</v>
+        <v>0.9774436090225564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9769809900244681</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9126984126984127</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9543568464730291</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9748015122873347</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.9948979591836735</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9745762711864406</v>
+        <v>0.984848484848485</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9747826086956523</v>
+        <v>0.9996984924623116</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9798994974874372</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9798994974874372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9978308026030369</v>
+        <v>0.9798994974874372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9934547738693468</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9602349877312619</v>
+        <v>0.8996350430056227</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9759798994974874</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9794452603625825</v>
+        <v>0.9241551835660259</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9839879704416568</v>
+        <v>0.9704556532663317</v>
       </c>
     </row>
   </sheetData>
